--- a/medicine/Enfance/Flore_Vesco/Flore_Vesco.xlsx
+++ b/medicine/Enfance/Flore_Vesco/Flore_Vesco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flore Vesco, née en 1981, est une autrice française de livres pour la jeunesse. Elle écrit des romans historiques où l'humour et le travail de la langue occupent une grande place[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flore Vesco, née en 1981, est une autrice française de livres pour la jeunesse. Elle écrit des romans historiques où l'humour et le travail de la langue occupent une grande place,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flore Vesco est née en 1981 à Paris. Après avoir enseigné le français en collège[3], elle publie son premier roman, De cape et de mots, en 2015. Ce roman historique fantaisiste connaît le succès en librairie[4].  
-Dans Louis Pasteur contre les loups-garous, elle met en scène un Louis Pasteur imaginaire dans une intrigue policière[5]. Dans Gustave Eiffel et les âmes de fer, elle raconte les aventures du créateur de la Tour Eiffel dans un Paris fantastique, sur fond de révolution industrielle[6]. 
-Avec L'Estrange Malaventure de Mirella, elle revisite le conte Le Joueur de flûte de Hamelin des frères Grimm en y insérant des mots de la langue médiévale[7],[8],[9]. Pour Télérama : « Il suffit de quelques lignes pour être transporté. Transporté au XIIIe siècle, dans la ville de Hamelin [...]. Transporté dans une histoire addictive, remarquablement contée, mêlant avec un art consommé du sucré-salé le drame à la fantaisie. Transporté surtout par une langue exceptionnelle, où chaque mot est un trésor, chaque ligne un bonheur de lecture, aussi savoureux que piquant : Flore Vesco ressuscite magnifiquement le français médiéval, aux notes fleuries et gouleyantes[10] ». 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flore Vesco est née en 1981 à Paris. Après avoir enseigné le français en collège, elle publie son premier roman, De cape et de mots, en 2015. Ce roman historique fantaisiste connaît le succès en librairie.  
+Dans Louis Pasteur contre les loups-garous, elle met en scène un Louis Pasteur imaginaire dans une intrigue policière. Dans Gustave Eiffel et les âmes de fer, elle raconte les aventures du créateur de la Tour Eiffel dans un Paris fantastique, sur fond de révolution industrielle. 
+Avec L'Estrange Malaventure de Mirella, elle revisite le conte Le Joueur de flûte de Hamelin des frères Grimm en y insérant des mots de la langue médiévale. Pour Télérama : « Il suffit de quelques lignes pour être transporté. Transporté au XIIIe siècle, dans la ville de Hamelin [...]. Transporté dans une histoire addictive, remarquablement contée, mêlant avec un art consommé du sucré-salé le drame à la fantaisie. Transporté surtout par une langue exceptionnelle, où chaque mot est un trésor, chaque ligne un bonheur de lecture, aussi savoureux que piquant : Flore Vesco ressuscite magnifiquement le français médiéval, aux notes fleuries et gouleyantes ». 
 </t>
         </is>
       </c>
